--- a/pin_config.xlsx
+++ b/pin_config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tamal\Documents\7th_sem\sem_project\application\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB037B4C-D9C2-4A5F-A52B-FA1A62C59010}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ACCA758-14DA-4E88-A18C-D1636B3939E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -194,7 +194,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -205,7 +205,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -214,25 +214,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
@@ -518,7 +512,7 @@
   <dimension ref="B1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -554,16 +548,16 @@
         <v>5</v>
       </c>
       <c r="I2" s="10"/>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="L2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="13" t="s">
+      <c r="M2" s="12" t="s">
         <v>13</v>
       </c>
     </row>
@@ -575,7 +569,7 @@
         <v>12</v>
       </c>
       <c r="D3" s="4">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E3" s="4">
         <v>0</v>
@@ -586,19 +580,19 @@
       <c r="G3" s="8">
         <v>0</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="I3" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="15">
+      <c r="J3" s="6">
+        <v>4</v>
+      </c>
+      <c r="K3" s="6">
         <v>2</v>
       </c>
-      <c r="K3" s="15">
-        <v>14</v>
-      </c>
-      <c r="L3" s="16" t="s">
+      <c r="L3" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="17" t="s">
+      <c r="M3" s="15" t="s">
         <v>14</v>
       </c>
     </row>

--- a/pin_config.xlsx
+++ b/pin_config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tamal\Documents\7th_sem\sem_project\application\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ACCA758-14DA-4E88-A18C-D1636B3939E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D76D8E6-1DDC-40E5-90ED-657588CAB7B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -509,10 +509,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:M4"/>
+  <dimension ref="B1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -529,8 +529,8 @@
     <col min="13" max="13" width="13.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B2" s="1"/>
       <c r="C2" s="2" t="s">
         <v>0</v>
@@ -547,21 +547,8 @@
       <c r="G2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="10"/>
-      <c r="J2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K2" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="L2" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="M2" s="12" t="s">
-        <v>13</v>
-      </c>
     </row>
-    <row r="3" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
@@ -580,23 +567,8 @@
       <c r="G3" s="8">
         <v>0</v>
       </c>
-      <c r="I3" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="J3" s="6">
-        <v>4</v>
-      </c>
-      <c r="K3" s="6">
-        <v>2</v>
-      </c>
-      <c r="L3" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="M3" s="15" t="s">
-        <v>14</v>
-      </c>
     </row>
-    <row r="4" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="5" t="s">
         <v>10</v>
       </c>
@@ -614,6 +586,39 @@
       </c>
       <c r="G4" s="9">
         <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B7" s="10"/>
+      <c r="C7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="6">
+        <v>4</v>
+      </c>
+      <c r="D8" s="6">
+        <v>2</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
